--- a/data/pca/factorExposure/factorExposure_2018-07-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03143209877745014</v>
+        <v>0.02563388534143092</v>
       </c>
       <c r="C2">
-        <v>-0.02948700578968758</v>
+        <v>0.01732433718962646</v>
       </c>
       <c r="D2">
-        <v>-0.02202834447438877</v>
+        <v>0.01968925224074184</v>
       </c>
       <c r="E2">
-        <v>-0.004873535717968847</v>
+        <v>0.01540781109464912</v>
       </c>
       <c r="F2">
-        <v>-0.1240476888312023</v>
+        <v>-0.007119906828917345</v>
       </c>
       <c r="G2">
-        <v>0.05129867202979622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05304918664995393</v>
+      </c>
+      <c r="H2">
+        <v>-0.04774883885799502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1171519570398553</v>
+        <v>0.08305733591602069</v>
       </c>
       <c r="C3">
-        <v>0.0225357001634184</v>
+        <v>-0.01341320935167546</v>
       </c>
       <c r="D3">
-        <v>-0.07061987269528212</v>
+        <v>0.023094963272154</v>
       </c>
       <c r="E3">
-        <v>-0.01944257858204126</v>
+        <v>0.01396451565262667</v>
       </c>
       <c r="F3">
-        <v>-0.3979899972194066</v>
+        <v>0.04003702891140336</v>
       </c>
       <c r="G3">
-        <v>0.1938694709901396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1837932510899337</v>
+      </c>
+      <c r="H3">
+        <v>-0.1441040290105578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05440435970341377</v>
+        <v>0.04814025492567701</v>
       </c>
       <c r="C4">
-        <v>-0.03331108498738764</v>
+        <v>0.003337044724387229</v>
       </c>
       <c r="D4">
-        <v>0.01705460627422448</v>
+        <v>0.04145682475443709</v>
       </c>
       <c r="E4">
-        <v>-0.06193794782407265</v>
+        <v>-0.02397415128593645</v>
       </c>
       <c r="F4">
-        <v>-0.07801875795222793</v>
+        <v>-0.04922510772277736</v>
       </c>
       <c r="G4">
-        <v>0.04771911711465893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04240296090421939</v>
+      </c>
+      <c r="H4">
+        <v>-0.05511374446715866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01310257569994189</v>
+        <v>0.02691184676504633</v>
       </c>
       <c r="C6">
-        <v>-0.007809507341380704</v>
+        <v>0.003553627510370618</v>
       </c>
       <c r="D6">
-        <v>-0.01811820734768502</v>
+        <v>0.05036010692006097</v>
       </c>
       <c r="E6">
-        <v>-0.02258719066419872</v>
+        <v>-0.009496847994891353</v>
       </c>
       <c r="F6">
-        <v>-0.01325318289437076</v>
+        <v>-0.02965273258668742</v>
       </c>
       <c r="G6">
-        <v>-0.0001218398767162865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01194071656493322</v>
+      </c>
+      <c r="H6">
+        <v>-0.06332745253442722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02450977647789807</v>
+        <v>0.02264639657226198</v>
       </c>
       <c r="C7">
-        <v>-0.002961922011643266</v>
+        <v>0.002688118504761863</v>
       </c>
       <c r="D7">
-        <v>-0.01299636486322077</v>
+        <v>0.02486054005559648</v>
       </c>
       <c r="E7">
-        <v>-0.03582217100428275</v>
+        <v>-0.04237840458059327</v>
       </c>
       <c r="F7">
-        <v>-0.05237877302562159</v>
+        <v>-0.001702494030646516</v>
       </c>
       <c r="G7">
-        <v>0.06275871110698947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02397158623621633</v>
+      </c>
+      <c r="H7">
+        <v>-0.03763548476033565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02010257932622401</v>
+        <v>0.007324436248120746</v>
       </c>
       <c r="C8">
-        <v>-0.01803648737859716</v>
+        <v>-0.002178495885743155</v>
       </c>
       <c r="D8">
-        <v>-0.005573932916837885</v>
+        <v>0.01140588220306126</v>
       </c>
       <c r="E8">
-        <v>-0.05643086645641764</v>
+        <v>-0.007701054078078912</v>
       </c>
       <c r="F8">
-        <v>-0.09390455665390053</v>
+        <v>-0.01692487357712441</v>
       </c>
       <c r="G8">
-        <v>0.06721244013595958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0476560640159706</v>
+      </c>
+      <c r="H8">
+        <v>-0.03726597043638147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04263460655252387</v>
+        <v>0.03943212686363833</v>
       </c>
       <c r="C9">
-        <v>-0.02940351234313495</v>
+        <v>-0.0006363102301319392</v>
       </c>
       <c r="D9">
-        <v>0.00474225839010731</v>
+        <v>0.03323574325049364</v>
       </c>
       <c r="E9">
-        <v>-0.0576821057548166</v>
+        <v>-0.01250828457316704</v>
       </c>
       <c r="F9">
-        <v>-0.07784515840669634</v>
+        <v>-0.02579536746370473</v>
       </c>
       <c r="G9">
-        <v>0.05746802348130543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04877401315931235</v>
+      </c>
+      <c r="H9">
+        <v>-0.05126089120983568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03049879869339554</v>
+        <v>0.09674487796955303</v>
       </c>
       <c r="C10">
-        <v>0.03439969625481615</v>
+        <v>-0.02782856678224532</v>
       </c>
       <c r="D10">
-        <v>0.07553529409226931</v>
+        <v>-0.1565291140368701</v>
       </c>
       <c r="E10">
-        <v>0.1057725368026921</v>
+        <v>0.01246755675196248</v>
       </c>
       <c r="F10">
-        <v>-0.05607201042970475</v>
+        <v>0.04609679350534528</v>
       </c>
       <c r="G10">
-        <v>-0.02979024758049251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0258344194147173</v>
+      </c>
+      <c r="H10">
+        <v>-0.003248556933641727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03739775784695578</v>
+        <v>0.0226020281794048</v>
       </c>
       <c r="C11">
-        <v>-0.01658893260066192</v>
+        <v>-0.008775551065020881</v>
       </c>
       <c r="D11">
-        <v>-0.01628485323697042</v>
+        <v>0.03713651928391967</v>
       </c>
       <c r="E11">
-        <v>-0.03609508180084702</v>
+        <v>-0.0002315038251065946</v>
       </c>
       <c r="F11">
-        <v>-0.04196492541995161</v>
+        <v>-0.01036162510356866</v>
       </c>
       <c r="G11">
-        <v>0.02529382942857461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02660760973590214</v>
+      </c>
+      <c r="H11">
+        <v>-0.04348201052400915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04355165843966109</v>
+        <v>0.03113534832684545</v>
       </c>
       <c r="C12">
-        <v>-0.01690077657064901</v>
+        <v>-0.00713306937435302</v>
       </c>
       <c r="D12">
-        <v>-0.009182847376514819</v>
+        <v>0.03839898045846997</v>
       </c>
       <c r="E12">
-        <v>-0.04052693343807898</v>
+        <v>-0.009624050517953659</v>
       </c>
       <c r="F12">
-        <v>-0.02869354108655903</v>
+        <v>-0.01642530730699775</v>
       </c>
       <c r="G12">
-        <v>0.01338248713789572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01177797293530729</v>
+      </c>
+      <c r="H12">
+        <v>-0.02317791156409597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02078251508276241</v>
+        <v>0.02605593679230179</v>
       </c>
       <c r="C13">
-        <v>-0.02337096999059047</v>
+        <v>0.01387059607717088</v>
       </c>
       <c r="D13">
-        <v>-0.01329387454594309</v>
+        <v>0.002518671183244472</v>
       </c>
       <c r="E13">
-        <v>-0.004545764477264999</v>
+        <v>0.01287170550915078</v>
       </c>
       <c r="F13">
-        <v>-0.07944614154167197</v>
+        <v>-0.009888721078681014</v>
       </c>
       <c r="G13">
-        <v>0.04128935777120447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04968448655698589</v>
+      </c>
+      <c r="H13">
+        <v>-0.05166363320828079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01285805529473836</v>
+        <v>0.01681186716768402</v>
       </c>
       <c r="C14">
-        <v>-0.01121459288072989</v>
+        <v>0.0006389174696585053</v>
       </c>
       <c r="D14">
-        <v>0.004851248163098393</v>
+        <v>0.005625206874640454</v>
       </c>
       <c r="E14">
-        <v>-0.04714226024046941</v>
+        <v>-0.01425330527261989</v>
       </c>
       <c r="F14">
-        <v>-0.05223311747174126</v>
+        <v>-0.01265873454834212</v>
       </c>
       <c r="G14">
-        <v>0.07276292564076441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04302853969083185</v>
+      </c>
+      <c r="H14">
+        <v>0.0002216126085620795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02856335076215949</v>
+        <v>0.02352218928532734</v>
       </c>
       <c r="C16">
-        <v>-0.02058398773499068</v>
+        <v>-0.009195690467216354</v>
       </c>
       <c r="D16">
-        <v>-0.01632587283246924</v>
+        <v>0.03314056627194804</v>
       </c>
       <c r="E16">
-        <v>-0.02824147293519867</v>
+        <v>-0.00359702745219291</v>
       </c>
       <c r="F16">
-        <v>-0.04826226662193676</v>
+        <v>-0.01633838722337222</v>
       </c>
       <c r="G16">
-        <v>0.02713806617891051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02470467980565021</v>
+      </c>
+      <c r="H16">
+        <v>-0.03747326293269942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04512340185550035</v>
+        <v>0.03555160733184222</v>
       </c>
       <c r="C19">
-        <v>-0.01869317473383357</v>
+        <v>-0.0002816594044557855</v>
       </c>
       <c r="D19">
-        <v>-0.01917964312935271</v>
+        <v>0.0175640477984304</v>
       </c>
       <c r="E19">
-        <v>-0.04942075923424558</v>
+        <v>-0.003968928519723908</v>
       </c>
       <c r="F19">
-        <v>-0.09745669254203222</v>
+        <v>-0.01789693234059788</v>
       </c>
       <c r="G19">
-        <v>0.05273672056790314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05972654202357714</v>
+      </c>
+      <c r="H19">
+        <v>-0.06557233826068125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002408820240953236</v>
+        <v>0.01045919280747865</v>
       </c>
       <c r="C20">
-        <v>-0.01707957187689623</v>
+        <v>0.006330364472294183</v>
       </c>
       <c r="D20">
-        <v>0.002400712161433233</v>
+        <v>0.007474275109199501</v>
       </c>
       <c r="E20">
-        <v>-0.04196735930986781</v>
+        <v>-0.004424808024329593</v>
       </c>
       <c r="F20">
-        <v>-0.06777309766890316</v>
+        <v>-0.01073706405281472</v>
       </c>
       <c r="G20">
-        <v>0.08009515003931465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04914933440100538</v>
+      </c>
+      <c r="H20">
+        <v>-0.01195970490477874</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001510338553237599</v>
+        <v>0.01846966588373372</v>
       </c>
       <c r="C21">
-        <v>0.006780502291083399</v>
+        <v>0.006971732704843876</v>
       </c>
       <c r="D21">
-        <v>-0.006694029989450267</v>
+        <v>0.008869283265058184</v>
       </c>
       <c r="E21">
-        <v>-0.03700568570071641</v>
+        <v>-0.0173316714384726</v>
       </c>
       <c r="F21">
-        <v>-0.05568218081373033</v>
+        <v>-0.00414117197897705</v>
       </c>
       <c r="G21">
-        <v>0.03207345606008077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05111270387933745</v>
+      </c>
+      <c r="H21">
+        <v>-0.03035124653762362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03317455134875644</v>
+        <v>0.02111094034319501</v>
       </c>
       <c r="C24">
-        <v>-0.02195540247484747</v>
+        <v>-0.003502321876634718</v>
       </c>
       <c r="D24">
-        <v>-0.009697368858598343</v>
+        <v>0.03379957586192035</v>
       </c>
       <c r="E24">
-        <v>-0.01274393013747551</v>
+        <v>-0.0007205094686662872</v>
       </c>
       <c r="F24">
-        <v>-0.04148999865911043</v>
+        <v>-0.01047375208068348</v>
       </c>
       <c r="G24">
-        <v>0.02316285974472807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02070319966599022</v>
+      </c>
+      <c r="H24">
+        <v>-0.03973437952655556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03151352854404015</v>
+        <v>0.03023405289347083</v>
       </c>
       <c r="C25">
-        <v>-0.01302369574812113</v>
+        <v>-0.001293636390901737</v>
       </c>
       <c r="D25">
-        <v>-0.01397468119463367</v>
+        <v>0.03319887840884444</v>
       </c>
       <c r="E25">
-        <v>-0.03935464090405747</v>
+        <v>-0.005157010226491691</v>
       </c>
       <c r="F25">
-        <v>-0.04152946310645562</v>
+        <v>-0.0160666422421771</v>
       </c>
       <c r="G25">
-        <v>0.007683574289845766</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02477617124388607</v>
+      </c>
+      <c r="H25">
+        <v>-0.04299186012394385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02344109003593421</v>
+        <v>0.02124148729765676</v>
       </c>
       <c r="C26">
-        <v>-0.007745414840670543</v>
+        <v>0.01662800991362879</v>
       </c>
       <c r="D26">
-        <v>-0.03062361250300118</v>
+        <v>0.003560345126622253</v>
       </c>
       <c r="E26">
-        <v>-0.02705635084905493</v>
+        <v>0.001485556934024016</v>
       </c>
       <c r="F26">
-        <v>-0.06543479464456156</v>
+        <v>-0.0009357868271576092</v>
       </c>
       <c r="G26">
-        <v>0.03452584767767913</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03296365674147178</v>
+      </c>
+      <c r="H26">
+        <v>-0.01747779065199253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06851508704078961</v>
+        <v>0.02708742647485117</v>
       </c>
       <c r="C27">
-        <v>-0.0366275556674673</v>
+        <v>-0.01057426530796302</v>
       </c>
       <c r="D27">
-        <v>0.03146485738047028</v>
+        <v>0.01456919083033015</v>
       </c>
       <c r="E27">
-        <v>-0.04082794632565075</v>
+        <v>-0.008675296443021296</v>
       </c>
       <c r="F27">
-        <v>-0.04765414795283771</v>
+        <v>-0.01840657609798897</v>
       </c>
       <c r="G27">
-        <v>0.03675842461552997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01872567825395372</v>
+      </c>
+      <c r="H27">
+        <v>-0.004387665124785518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04706125475391507</v>
+        <v>0.1427447620678631</v>
       </c>
       <c r="C28">
-        <v>0.04069947131537333</v>
+        <v>-0.0275533744986911</v>
       </c>
       <c r="D28">
-        <v>0.1111260572356765</v>
+        <v>-0.22741564931153</v>
       </c>
       <c r="E28">
-        <v>0.1474497079919087</v>
+        <v>0.01109862519596491</v>
       </c>
       <c r="F28">
-        <v>-0.05683174219253845</v>
+        <v>0.05339805975023151</v>
       </c>
       <c r="G28">
-        <v>-0.01052142768581429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01620313973225649</v>
+      </c>
+      <c r="H28">
+        <v>0.01939500404501692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02078381182827952</v>
+        <v>0.02152816384273183</v>
       </c>
       <c r="C29">
-        <v>-0.01271610912927452</v>
+        <v>-0.001548681052626667</v>
       </c>
       <c r="D29">
-        <v>0.007372040280482025</v>
+        <v>0.008571234128843355</v>
       </c>
       <c r="E29">
-        <v>-0.05976860585109841</v>
+        <v>-0.01425649361160729</v>
       </c>
       <c r="F29">
-        <v>-0.04159186189634187</v>
+        <v>-0.01575986381756803</v>
       </c>
       <c r="G29">
-        <v>0.06100469044052775</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03883958018735977</v>
+      </c>
+      <c r="H29">
+        <v>0.00366643575204144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09485275066890442</v>
+        <v>0.05507669806919432</v>
       </c>
       <c r="C30">
-        <v>-0.06552258725541302</v>
+        <v>0.00327383362500034</v>
       </c>
       <c r="D30">
-        <v>-0.01508529160580231</v>
+        <v>0.07104841920978879</v>
       </c>
       <c r="E30">
-        <v>-0.07055626289790295</v>
+        <v>0.02801123963285035</v>
       </c>
       <c r="F30">
-        <v>-0.08207845943918352</v>
+        <v>-0.05268121290447578</v>
       </c>
       <c r="G30">
-        <v>0.03775209738112909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05486268960067824</v>
+      </c>
+      <c r="H30">
+        <v>-0.06960213254236726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0630555750715797</v>
+        <v>0.05541109863778791</v>
       </c>
       <c r="C31">
-        <v>-0.02938587050650312</v>
+        <v>-0.01523658248446707</v>
       </c>
       <c r="D31">
-        <v>-0.02660534004714194</v>
+        <v>0.02398663667786982</v>
       </c>
       <c r="E31">
-        <v>-0.01966269119173075</v>
+        <v>0.002163312038972209</v>
       </c>
       <c r="F31">
-        <v>-0.03769849073496407</v>
+        <v>-0.01494278447645462</v>
       </c>
       <c r="G31">
-        <v>0.07957748553419312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01992407045028578</v>
+      </c>
+      <c r="H31">
+        <v>-0.001695768987673525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02184926297775166</v>
+        <v>0.01081602033778242</v>
       </c>
       <c r="C32">
-        <v>-0.0223132568788706</v>
+        <v>-0.01340619873427087</v>
       </c>
       <c r="D32">
-        <v>-0.006925780531437686</v>
+        <v>0.001500212442687848</v>
       </c>
       <c r="E32">
-        <v>-0.08654869024620063</v>
+        <v>-0.03129307775748959</v>
       </c>
       <c r="F32">
-        <v>-0.05990839213369801</v>
+        <v>-0.03303202751973505</v>
       </c>
       <c r="G32">
-        <v>0.04448580458451293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03538888433009357</v>
+      </c>
+      <c r="H32">
+        <v>-0.05986712479393785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05391027693904298</v>
+        <v>0.04050168225995274</v>
       </c>
       <c r="C33">
-        <v>-0.01602938172947677</v>
+        <v>-0.001728504473846271</v>
       </c>
       <c r="D33">
-        <v>-0.04741368483866243</v>
+        <v>0.03143343076900781</v>
       </c>
       <c r="E33">
-        <v>-0.04923734108963285</v>
+        <v>0.0231809261810956</v>
       </c>
       <c r="F33">
-        <v>-0.08692028052856027</v>
+        <v>-0.003122979301579811</v>
       </c>
       <c r="G33">
-        <v>0.05498532249754899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05088261656384503</v>
+      </c>
+      <c r="H33">
+        <v>-0.04017101785011978</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0353190356143531</v>
+        <v>0.02811910583877893</v>
       </c>
       <c r="C34">
-        <v>-0.02325537772798106</v>
+        <v>-0.0177646061654521</v>
       </c>
       <c r="D34">
-        <v>-0.01089936221727442</v>
+        <v>0.03456321636162447</v>
       </c>
       <c r="E34">
-        <v>-0.03669740596763227</v>
+        <v>-0.009801521148116468</v>
       </c>
       <c r="F34">
-        <v>-0.05500433617386377</v>
+        <v>-0.01737299501549157</v>
       </c>
       <c r="G34">
-        <v>0.01421754401404964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0223799629995019</v>
+      </c>
+      <c r="H34">
+        <v>-0.0373404701851892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01699347654636618</v>
+        <v>0.02176608749751364</v>
       </c>
       <c r="C36">
-        <v>-0.007253512831679386</v>
+        <v>0.003581482723402858</v>
       </c>
       <c r="D36">
-        <v>0.002055755866219337</v>
+        <v>-0.000953483114373456</v>
       </c>
       <c r="E36">
-        <v>-0.03454412448163653</v>
+        <v>-0.00666459838140867</v>
       </c>
       <c r="F36">
-        <v>-0.03103863571084648</v>
+        <v>-0.004154338730225807</v>
       </c>
       <c r="G36">
-        <v>0.03735931938057181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02117159501282416</v>
+      </c>
+      <c r="H36">
+        <v>-0.006599191661765583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.00234330795661624</v>
+        <v>0.02424034233975368</v>
       </c>
       <c r="C38">
-        <v>0.01297474074494182</v>
+        <v>-0.01661909450861401</v>
       </c>
       <c r="D38">
-        <v>-0.01144193305122685</v>
+        <v>0.00223298218809953</v>
       </c>
       <c r="E38">
-        <v>0.01212445547665611</v>
+        <v>0.0005648935327987524</v>
       </c>
       <c r="F38">
-        <v>-0.04616222292720497</v>
+        <v>-0.00565474844328908</v>
       </c>
       <c r="G38">
-        <v>0.0034884832206375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02257764360319337</v>
+      </c>
+      <c r="H38">
+        <v>-0.03881161184279514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04175667276367984</v>
+        <v>0.02069841934170011</v>
       </c>
       <c r="C39">
-        <v>-0.03780159936897366</v>
+        <v>-0.001742891324181029</v>
       </c>
       <c r="D39">
-        <v>-0.02350838908465236</v>
+        <v>0.07529140994530052</v>
       </c>
       <c r="E39">
-        <v>-0.0390276118706834</v>
+        <v>0.0009469813173830019</v>
       </c>
       <c r="F39">
-        <v>-0.06545595506706056</v>
+        <v>-0.02217198705929418</v>
       </c>
       <c r="G39">
-        <v>0.02351271824217075</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04333687819552226</v>
+      </c>
+      <c r="H39">
+        <v>-0.0718808067648004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03930057728446653</v>
+        <v>0.03513966981352303</v>
       </c>
       <c r="C40">
-        <v>-0.06394608154161965</v>
+        <v>-0.002168261719420651</v>
       </c>
       <c r="D40">
-        <v>-0.03742663904005539</v>
+        <v>0.01887353850835561</v>
       </c>
       <c r="E40">
-        <v>0.002944200915874008</v>
+        <v>0.02287259033317762</v>
       </c>
       <c r="F40">
-        <v>-0.07658553979298946</v>
+        <v>-0.02728719810021522</v>
       </c>
       <c r="G40">
-        <v>0.05657386627704682</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02485318257061137</v>
+      </c>
+      <c r="H40">
+        <v>-0.06693258735166811</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001327615829065426</v>
+        <v>0.01147208987860416</v>
       </c>
       <c r="C41">
-        <v>-0.0006758308740938922</v>
+        <v>0.0003297673736031706</v>
       </c>
       <c r="D41">
-        <v>-0.005720559225633834</v>
+        <v>-0.01350945545028001</v>
       </c>
       <c r="E41">
-        <v>-0.01463527126574137</v>
+        <v>0.001361304603617689</v>
       </c>
       <c r="F41">
-        <v>-0.001075898747864356</v>
+        <v>0.001095972923894817</v>
       </c>
       <c r="G41">
-        <v>0.05207108758686015</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005346305525674527</v>
+      </c>
+      <c r="H41">
+        <v>0.008600630657852116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3725600238065928</v>
+        <v>0.2045253559652488</v>
       </c>
       <c r="C42">
-        <v>0.6863254122934392</v>
+        <v>0.07303054213497077</v>
       </c>
       <c r="D42">
-        <v>-0.5259551328064285</v>
+        <v>0.3636552066809013</v>
       </c>
       <c r="E42">
-        <v>0.1442892375252424</v>
+        <v>0.2387067590709621</v>
       </c>
       <c r="F42">
-        <v>0.2260802805022067</v>
+        <v>0.8392419554559659</v>
       </c>
       <c r="G42">
-        <v>0.07054359191431982</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1978893782259708</v>
+      </c>
+      <c r="H42">
+        <v>0.04478272478144074</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006537989711727332</v>
+        <v>0.01109081883495699</v>
       </c>
       <c r="C43">
-        <v>0.005952253975348923</v>
+        <v>0.001868898133824619</v>
       </c>
       <c r="D43">
-        <v>-0.01563892381486172</v>
+        <v>-0.01526890559691169</v>
       </c>
       <c r="E43">
-        <v>-0.01684119564292122</v>
+        <v>0.006363207379191701</v>
       </c>
       <c r="F43">
-        <v>-0.01856494968542579</v>
+        <v>0.008526909647097049</v>
       </c>
       <c r="G43">
-        <v>0.04847204937379559</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.009157344540299806</v>
+      </c>
+      <c r="H43">
+        <v>0.001752965687914293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01724340181759728</v>
+        <v>0.015058939443168</v>
       </c>
       <c r="C44">
-        <v>0.001018301920350922</v>
+        <v>-0.001490706513009191</v>
       </c>
       <c r="D44">
-        <v>-0.01795461929506458</v>
+        <v>0.01808814413611127</v>
       </c>
       <c r="E44">
-        <v>-0.03583330260966461</v>
+        <v>-0.005690613461541039</v>
       </c>
       <c r="F44">
-        <v>-0.1103286871449627</v>
+        <v>0.004556447111107404</v>
       </c>
       <c r="G44">
-        <v>0.08697142525935972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0450451523477361</v>
+      </c>
+      <c r="H44">
+        <v>-0.0542812024873939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01964926097224505</v>
+        <v>0.01917764817386737</v>
       </c>
       <c r="C46">
-        <v>-0.01199764142916735</v>
+        <v>0.003411113744587346</v>
       </c>
       <c r="D46">
-        <v>-0.02257538561173248</v>
+        <v>0.01380574131135263</v>
       </c>
       <c r="E46">
-        <v>-0.05701011029361116</v>
+        <v>-0.001718417542906273</v>
       </c>
       <c r="F46">
-        <v>-0.05690669652197527</v>
+        <v>-0.01514753999440871</v>
       </c>
       <c r="G46">
-        <v>0.06400792204526073</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05027032038922945</v>
+      </c>
+      <c r="H46">
+        <v>-0.01099823058262933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0993792611635935</v>
+        <v>0.07694132751458758</v>
       </c>
       <c r="C47">
-        <v>-0.03503224378294451</v>
+        <v>-0.03077789801899461</v>
       </c>
       <c r="D47">
-        <v>-0.009414710545897048</v>
+        <v>0.04109542149417815</v>
       </c>
       <c r="E47">
-        <v>-0.02991119195280205</v>
+        <v>-0.002104484406772338</v>
       </c>
       <c r="F47">
-        <v>-0.01238559547288875</v>
+        <v>-0.02330738521865608</v>
       </c>
       <c r="G47">
-        <v>0.08263887460103712</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.00592696174915685</v>
+      </c>
+      <c r="H47">
+        <v>0.02413991178350547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01918405803431542</v>
+        <v>0.0232588581056633</v>
       </c>
       <c r="C48">
-        <v>-0.008842065182153561</v>
+        <v>-0.007095043472937326</v>
       </c>
       <c r="D48">
-        <v>-0.01304504707852086</v>
+        <v>0.006032875435854191</v>
       </c>
       <c r="E48">
-        <v>-0.03423651994785726</v>
+        <v>-0.001914177734810133</v>
       </c>
       <c r="F48">
-        <v>-0.04952995359288966</v>
+        <v>-0.008785355598180984</v>
       </c>
       <c r="G48">
-        <v>0.02412876229116042</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02746041730470767</v>
+      </c>
+      <c r="H48">
+        <v>-0.01590655556322706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09292259632589105</v>
+        <v>0.07442709962988998</v>
       </c>
       <c r="C50">
-        <v>-0.03168586077152127</v>
+        <v>-0.02783120654792097</v>
       </c>
       <c r="D50">
-        <v>-0.01933398659926299</v>
+        <v>0.04183490091663512</v>
       </c>
       <c r="E50">
-        <v>-0.04558019435067564</v>
+        <v>-0.02156472870292038</v>
       </c>
       <c r="F50">
-        <v>-0.04398789461971731</v>
+        <v>-0.01798503994166717</v>
       </c>
       <c r="G50">
-        <v>0.04523735783815921</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02029806552549243</v>
+      </c>
+      <c r="H50">
+        <v>0.00680123858332092</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01846620889299463</v>
+        <v>0.01886886343128534</v>
       </c>
       <c r="C51">
-        <v>0.0062619814770872</v>
+        <v>0.001339954268758028</v>
       </c>
       <c r="D51">
-        <v>-0.008730365709645676</v>
+        <v>-0.008958531927699602</v>
       </c>
       <c r="E51">
-        <v>-0.003418966862991424</v>
+        <v>0.0003762655568449514</v>
       </c>
       <c r="F51">
-        <v>-0.1178830883651205</v>
+        <v>0.01257081223067232</v>
       </c>
       <c r="G51">
-        <v>0.05292815370603868</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05109520739617431</v>
+      </c>
+      <c r="H51">
+        <v>-0.04864469829115621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1060411445858948</v>
+        <v>0.09428423345016543</v>
       </c>
       <c r="C53">
-        <v>-0.0509649719143169</v>
+        <v>-0.03782884011931863</v>
       </c>
       <c r="D53">
-        <v>-0.01434002499268053</v>
+        <v>0.07689366919842085</v>
       </c>
       <c r="E53">
-        <v>-0.04263476640208724</v>
+        <v>-0.009785524059178215</v>
       </c>
       <c r="F53">
-        <v>0.05455847375304773</v>
+        <v>-0.05116234338795602</v>
       </c>
       <c r="G53">
-        <v>0.01447232579275356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04185809090257626</v>
+      </c>
+      <c r="H53">
+        <v>0.04504740739508567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01425434373341206</v>
+        <v>0.02555659987045251</v>
       </c>
       <c r="C54">
-        <v>-0.01228484279674301</v>
+        <v>-0.01146144362934736</v>
       </c>
       <c r="D54">
-        <v>0.008321331842808205</v>
+        <v>-0.01184029284019084</v>
       </c>
       <c r="E54">
-        <v>-0.03749004832409811</v>
+        <v>-0.00809228885509768</v>
       </c>
       <c r="F54">
-        <v>-0.05593632493329166</v>
+        <v>-0.006021972685085818</v>
       </c>
       <c r="G54">
-        <v>0.07472089449335864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.039096515158335</v>
+      </c>
+      <c r="H54">
+        <v>0.007904454571243218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1028101851032572</v>
+        <v>0.07811099424609561</v>
       </c>
       <c r="C55">
-        <v>-0.03048947371868132</v>
+        <v>-0.03254132375677059</v>
       </c>
       <c r="D55">
-        <v>0.006883651933178203</v>
+        <v>0.07462877055848895</v>
       </c>
       <c r="E55">
-        <v>-0.06021636524151579</v>
+        <v>-0.01596267758611229</v>
       </c>
       <c r="F55">
-        <v>0.04381987864889488</v>
+        <v>-0.03982786520255273</v>
       </c>
       <c r="G55">
-        <v>0.06228753588583096</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01943639010612634</v>
+      </c>
+      <c r="H55">
+        <v>0.05084198698532857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1457688999639791</v>
+        <v>0.1290912449215124</v>
       </c>
       <c r="C56">
-        <v>-0.09409911019123238</v>
+        <v>-0.05772321796838062</v>
       </c>
       <c r="D56">
-        <v>0.02197060906773953</v>
+        <v>0.09653861969131741</v>
       </c>
       <c r="E56">
-        <v>-0.04998565978400154</v>
+        <v>-0.01400347220184752</v>
       </c>
       <c r="F56">
-        <v>0.1133375970256088</v>
+        <v>-0.08173136015664606</v>
       </c>
       <c r="G56">
-        <v>-0.04573956827877745</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07571553896313724</v>
+      </c>
+      <c r="H56">
+        <v>0.04793194113244865</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04803240889376875</v>
+        <v>0.04162391109134829</v>
       </c>
       <c r="C57">
-        <v>-0.001414015456058744</v>
+        <v>0.009318826900645073</v>
       </c>
       <c r="D57">
-        <v>-0.01509168512875514</v>
+        <v>0.02491377741049228</v>
       </c>
       <c r="E57">
-        <v>0.00725179272271038</v>
+        <v>0.004232212591722791</v>
       </c>
       <c r="F57">
-        <v>-0.08563297594343491</v>
+        <v>-0.01326100302966671</v>
       </c>
       <c r="G57">
-        <v>0.06701557361676096</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05743835770558261</v>
+      </c>
+      <c r="H57">
+        <v>-0.04268749589397722</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2153835875103684</v>
+        <v>0.1533416470574205</v>
       </c>
       <c r="C58">
-        <v>-0.07039235821102198</v>
+        <v>-0.04552247279645525</v>
       </c>
       <c r="D58">
-        <v>-0.1350227717057912</v>
+        <v>0.1556336826965598</v>
       </c>
       <c r="E58">
-        <v>-0.1587711904840846</v>
+        <v>0.1655023588180975</v>
       </c>
       <c r="F58">
-        <v>-0.3070868406924939</v>
+        <v>0.0322364220312085</v>
       </c>
       <c r="G58">
-        <v>0.08488343151522622</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8267394170728802</v>
+      </c>
+      <c r="H58">
+        <v>0.3673427556792611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04861381540088935</v>
+        <v>0.1506077416686262</v>
       </c>
       <c r="C59">
-        <v>-0.00143258191207345</v>
+        <v>-0.03613267372581305</v>
       </c>
       <c r="D59">
-        <v>0.09085533205019179</v>
+        <v>-0.2278001739881962</v>
       </c>
       <c r="E59">
-        <v>0.1398900452308998</v>
+        <v>0.02980695565218931</v>
       </c>
       <c r="F59">
-        <v>-0.07154851839519404</v>
+        <v>0.03211967575332578</v>
       </c>
       <c r="G59">
-        <v>-0.03537949528876025</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01008606063138672</v>
+      </c>
+      <c r="H59">
+        <v>-0.01496398374577931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1662977924597669</v>
+        <v>0.1745215966588374</v>
       </c>
       <c r="C60">
-        <v>-0.0389398001657203</v>
+        <v>-0.03781577268244398</v>
       </c>
       <c r="D60">
-        <v>-0.06242604064248003</v>
+        <v>0.01646144242837124</v>
       </c>
       <c r="E60">
-        <v>0.04172754606201503</v>
+        <v>0.04897274461796708</v>
       </c>
       <c r="F60">
-        <v>-0.1778623373565155</v>
+        <v>-0.03866111969111359</v>
       </c>
       <c r="G60">
-        <v>-0.3047424391488441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.043956654111599</v>
+      </c>
+      <c r="H60">
+        <v>-0.3914680292449122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0216643777258695</v>
+        <v>0.02161539181818195</v>
       </c>
       <c r="C61">
-        <v>-0.006168716387211503</v>
+        <v>-0.006549764569373622</v>
       </c>
       <c r="D61">
-        <v>-0.01212551777390364</v>
+        <v>0.04140566129518998</v>
       </c>
       <c r="E61">
-        <v>-0.02097899200413439</v>
+        <v>-0.005503528510301705</v>
       </c>
       <c r="F61">
-        <v>-0.03426177331435752</v>
+        <v>-0.01731558301762968</v>
       </c>
       <c r="G61">
-        <v>0.01630224344924576</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02488670075442011</v>
+      </c>
+      <c r="H61">
+        <v>-0.04996551095224649</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01786975772979622</v>
+        <v>0.0130806969596676</v>
       </c>
       <c r="C63">
-        <v>-0.01439874933050214</v>
+        <v>0.001890895752639656</v>
       </c>
       <c r="D63">
-        <v>-0.01364113078894711</v>
+        <v>0.01538071095973107</v>
       </c>
       <c r="E63">
-        <v>-0.04807462961176593</v>
+        <v>-0.005912794582930112</v>
       </c>
       <c r="F63">
-        <v>-0.011993557815371</v>
+        <v>-0.01573109948826798</v>
       </c>
       <c r="G63">
-        <v>0.04192021894314898</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01670093343235141</v>
+      </c>
+      <c r="H63">
+        <v>0.0009400173970568157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03631401879931911</v>
+        <v>0.04085953650939034</v>
       </c>
       <c r="C64">
-        <v>-0.005229757626871661</v>
+        <v>-0.01018325607028692</v>
       </c>
       <c r="D64">
-        <v>0.01679412497679414</v>
+        <v>0.03718277454184527</v>
       </c>
       <c r="E64">
-        <v>-0.05615418443423276</v>
+        <v>-0.0118884368724004</v>
       </c>
       <c r="F64">
-        <v>-0.01588896436556884</v>
+        <v>-0.005938303422735272</v>
       </c>
       <c r="G64">
-        <v>0.05775468660244628</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.008407565270541689</v>
+      </c>
+      <c r="H64">
+        <v>-0.03483579862829259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01418754119649637</v>
+        <v>0.03054169785615685</v>
       </c>
       <c r="C65">
-        <v>-0.009132249235213856</v>
+        <v>0.004100948161285181</v>
       </c>
       <c r="D65">
-        <v>-0.01966750178940324</v>
+        <v>0.05962016859972701</v>
       </c>
       <c r="E65">
-        <v>-0.0229441878367568</v>
+        <v>-0.01237737349847332</v>
       </c>
       <c r="F65">
-        <v>-0.008005767745697652</v>
+        <v>-0.03219143643287581</v>
       </c>
       <c r="G65">
-        <v>-0.004232042596898182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001433956273945408</v>
+      </c>
+      <c r="H65">
+        <v>-0.06842419477327508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04525357058164391</v>
+        <v>0.0276198272000904</v>
       </c>
       <c r="C66">
-        <v>-0.03899902936662008</v>
+        <v>-0.006712933045604015</v>
       </c>
       <c r="D66">
-        <v>-0.02412854435542123</v>
+        <v>0.08758582262708277</v>
       </c>
       <c r="E66">
-        <v>-0.03504371869561072</v>
+        <v>0.001807371529443854</v>
       </c>
       <c r="F66">
-        <v>-0.06040898398266157</v>
+        <v>-0.03915646714384912</v>
       </c>
       <c r="G66">
-        <v>0.01427263988485229</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03482667698217731</v>
+      </c>
+      <c r="H66">
+        <v>-0.07556704847939691</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01631189468301754</v>
+        <v>0.04438808790307964</v>
       </c>
       <c r="C67">
-        <v>0.009258031827255694</v>
+        <v>-0.01985253570956435</v>
       </c>
       <c r="D67">
-        <v>-0.008171191826439021</v>
+        <v>-0.004686813203269133</v>
       </c>
       <c r="E67">
-        <v>0.03670487956899238</v>
+        <v>0.004220299887230323</v>
       </c>
       <c r="F67">
-        <v>-0.03410662077859044</v>
+        <v>-0.01031435061966873</v>
       </c>
       <c r="G67">
-        <v>-0.009394480818739699</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.005876458619431106</v>
+      </c>
+      <c r="H67">
+        <v>-0.04028270771137653</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05883894837927673</v>
+        <v>0.1519829236172954</v>
       </c>
       <c r="C68">
-        <v>0.01853830024315084</v>
+        <v>-0.01631527598795543</v>
       </c>
       <c r="D68">
-        <v>0.1253493139652167</v>
+        <v>-0.2225483706013725</v>
       </c>
       <c r="E68">
-        <v>0.1429252969874223</v>
+        <v>0.02292759012757915</v>
       </c>
       <c r="F68">
-        <v>-0.05941088195522323</v>
+        <v>0.05131231145706891</v>
       </c>
       <c r="G68">
-        <v>-0.06343386446457208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02173698893822517</v>
+      </c>
+      <c r="H68">
+        <v>0.0382291827217063</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07353650942898322</v>
+        <v>0.05945557904625147</v>
       </c>
       <c r="C69">
-        <v>-0.03746240070306235</v>
+        <v>-0.02902276026539767</v>
       </c>
       <c r="D69">
-        <v>-0.007828448299260268</v>
+        <v>0.03649126407456057</v>
       </c>
       <c r="E69">
-        <v>-0.006646503413019807</v>
+        <v>0.0004332530687299594</v>
       </c>
       <c r="F69">
-        <v>-0.01066968433912154</v>
+        <v>-0.03038645147190468</v>
       </c>
       <c r="G69">
-        <v>0.08101960411800743</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01226028840873808</v>
+      </c>
+      <c r="H69">
+        <v>0.0008114646450292518</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07430063331110082</v>
+        <v>0.1448899618714126</v>
       </c>
       <c r="C71">
-        <v>0.02706294542827296</v>
+        <v>-0.02421819895764232</v>
       </c>
       <c r="D71">
-        <v>0.1080217335348729</v>
+        <v>-0.201999122694702</v>
       </c>
       <c r="E71">
-        <v>0.1975046159728587</v>
+        <v>0.02886225923577689</v>
       </c>
       <c r="F71">
-        <v>-0.07993383828281464</v>
+        <v>0.06067347149099287</v>
       </c>
       <c r="G71">
-        <v>-0.02162222367459144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01933772358643028</v>
+      </c>
+      <c r="H71">
+        <v>0.02417671100762261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1136317195320544</v>
+        <v>0.08614893923505541</v>
       </c>
       <c r="C72">
-        <v>-0.09125869545836887</v>
+        <v>-0.04131925294388479</v>
       </c>
       <c r="D72">
-        <v>0.00199382914618506</v>
+        <v>0.07793232086967282</v>
       </c>
       <c r="E72">
-        <v>-0.02193942291360448</v>
+        <v>0.00601960448568599</v>
       </c>
       <c r="F72">
-        <v>-0.1075540654802294</v>
+        <v>-0.07922123390267877</v>
       </c>
       <c r="G72">
-        <v>-0.08012572323345171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04959224430263495</v>
+      </c>
+      <c r="H72">
+        <v>-0.1853809586315504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2482990131651162</v>
+        <v>0.2392144027283569</v>
       </c>
       <c r="C73">
-        <v>-0.04254535862148291</v>
+        <v>-0.04851659166350548</v>
       </c>
       <c r="D73">
-        <v>-0.06843780569993303</v>
+        <v>0.05371851506046878</v>
       </c>
       <c r="E73">
-        <v>0.1285541157708102</v>
+        <v>0.08228353573900081</v>
       </c>
       <c r="F73">
-        <v>-0.3048977481371786</v>
+        <v>-0.03423981321465533</v>
       </c>
       <c r="G73">
-        <v>-0.4183509890172004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.06131083154135877</v>
+      </c>
+      <c r="H73">
+        <v>-0.5146321892823766</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1381360248150127</v>
+        <v>0.1216077371185585</v>
       </c>
       <c r="C74">
-        <v>-0.0435635222335124</v>
+        <v>-0.05403098056412183</v>
       </c>
       <c r="D74">
-        <v>0.01627536053205189</v>
+        <v>0.09721898689439523</v>
       </c>
       <c r="E74">
-        <v>-0.02660045556051659</v>
+        <v>-0.009945561740056274</v>
       </c>
       <c r="F74">
-        <v>0.07129838249902641</v>
+        <v>-0.06103654971087262</v>
       </c>
       <c r="G74">
-        <v>-0.03559750208989147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05937782030440213</v>
+      </c>
+      <c r="H74">
+        <v>0.03073095942219591</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2287188244448614</v>
+        <v>0.2324423596916908</v>
       </c>
       <c r="C75">
-        <v>-0.156048443343255</v>
+        <v>-0.1049501388316181</v>
       </c>
       <c r="D75">
-        <v>0.02429107075472511</v>
+        <v>0.1518675331626299</v>
       </c>
       <c r="E75">
-        <v>-0.05855891545302368</v>
+        <v>-0.0005838988785197303</v>
       </c>
       <c r="F75">
-        <v>0.1371004146677816</v>
+        <v>-0.1484395736639038</v>
       </c>
       <c r="G75">
-        <v>0.002853004086884087</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1268768842742109</v>
+      </c>
+      <c r="H75">
+        <v>0.1132901919035611</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2783685237487035</v>
+        <v>0.2047018378742771</v>
       </c>
       <c r="C76">
-        <v>-0.1474595889493071</v>
+        <v>-0.09791900969907803</v>
       </c>
       <c r="D76">
-        <v>0.09984036056236639</v>
+        <v>0.1462155167572233</v>
       </c>
       <c r="E76">
-        <v>-0.06927977816080344</v>
+        <v>-0.04968334371963479</v>
       </c>
       <c r="F76">
-        <v>0.1866192671448663</v>
+        <v>-0.1448607459875426</v>
       </c>
       <c r="G76">
-        <v>-0.006807575263856325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1248556442067572</v>
+      </c>
+      <c r="H76">
+        <v>0.1286934201104453</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1442158501171642</v>
+        <v>0.07204533469872697</v>
       </c>
       <c r="C77">
-        <v>0.01809019961404375</v>
+        <v>-0.01016789720016874</v>
       </c>
       <c r="D77">
-        <v>-0.07449342806876511</v>
+        <v>0.06769692991101954</v>
       </c>
       <c r="E77">
-        <v>-0.08646613129799534</v>
+        <v>0.01398901056629199</v>
       </c>
       <c r="F77">
-        <v>-0.1723549191466481</v>
+        <v>0.02891358519046299</v>
       </c>
       <c r="G77">
-        <v>0.1804505116885106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09377229860381507</v>
+      </c>
+      <c r="H77">
+        <v>0.01482220397495386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06100990563994192</v>
+        <v>0.03856155983617382</v>
       </c>
       <c r="C78">
-        <v>-0.02646797177073063</v>
+        <v>-0.01104200778113679</v>
       </c>
       <c r="D78">
-        <v>-0.02707016381492987</v>
+        <v>0.06159141980993671</v>
       </c>
       <c r="E78">
-        <v>-0.1015411215915933</v>
+        <v>-0.009599312090378653</v>
       </c>
       <c r="F78">
-        <v>-0.05103312171702127</v>
+        <v>-0.02403536217226679</v>
       </c>
       <c r="G78">
-        <v>0.04443719245374567</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.04624227185614468</v>
+      </c>
+      <c r="H78">
+        <v>-0.06117939521092426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.137826795509466</v>
+        <v>0.1412004335484748</v>
       </c>
       <c r="C80">
-        <v>0.5510957579538311</v>
+        <v>-0.03921912348646017</v>
       </c>
       <c r="D80">
-        <v>0.6236403358431587</v>
+        <v>0.03421934232941612</v>
       </c>
       <c r="E80">
-        <v>-0.4947295613235205</v>
+        <v>-0.9348130947468404</v>
       </c>
       <c r="F80">
-        <v>-0.04915070106736365</v>
+        <v>0.2577571000766333</v>
       </c>
       <c r="G80">
-        <v>-0.1079779482233205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1206698809571457</v>
+      </c>
+      <c r="H80">
+        <v>-0.01678735771316025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1711484568561432</v>
+        <v>0.1512526478908509</v>
       </c>
       <c r="C81">
-        <v>-0.1089558732651976</v>
+        <v>-0.06759651463025906</v>
       </c>
       <c r="D81">
-        <v>0.04400199028315833</v>
+        <v>0.09395430469327305</v>
       </c>
       <c r="E81">
-        <v>-0.04188756290235932</v>
+        <v>-0.01958330544084634</v>
       </c>
       <c r="F81">
-        <v>0.1322337634143574</v>
+        <v>-0.09191108102696259</v>
       </c>
       <c r="G81">
-        <v>-0.01959196797616265</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07926058863311473</v>
+      </c>
+      <c r="H81">
+        <v>0.08425196553850374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04856329416376138</v>
+        <v>0.03375542742753741</v>
       </c>
       <c r="C83">
-        <v>0.0004797605345815281</v>
+        <v>-0.006252875849319486</v>
       </c>
       <c r="D83">
-        <v>-0.03506300770111385</v>
+        <v>0.01979481856408341</v>
       </c>
       <c r="E83">
-        <v>-0.01964472789971754</v>
+        <v>0.004947983667699249</v>
       </c>
       <c r="F83">
-        <v>-0.05886780272432051</v>
+        <v>-0.003751397246010797</v>
       </c>
       <c r="G83">
-        <v>0.04924511142034094</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04368249312345359</v>
+      </c>
+      <c r="H83">
+        <v>-0.03998042456572484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2501867820956014</v>
+        <v>0.2179774356084433</v>
       </c>
       <c r="C85">
-        <v>-0.1409671548595046</v>
+        <v>-0.08742099994858947</v>
       </c>
       <c r="D85">
-        <v>0.04768034840058518</v>
+        <v>0.1542068799604863</v>
       </c>
       <c r="E85">
-        <v>-0.064621464705482</v>
+        <v>-0.006984416201753247</v>
       </c>
       <c r="F85">
-        <v>0.1437641639797267</v>
+        <v>-0.1346669107564636</v>
       </c>
       <c r="G85">
-        <v>0.04579702397100236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1377163964440222</v>
+      </c>
+      <c r="H85">
+        <v>0.09054719928182636</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003511527890869219</v>
+        <v>0.02182622990366177</v>
       </c>
       <c r="C86">
-        <v>0.01346987460043727</v>
+        <v>0.0001890570255494302</v>
       </c>
       <c r="D86">
-        <v>-0.01180336432695907</v>
+        <v>0.004713725559021278</v>
       </c>
       <c r="E86">
-        <v>-0.05469910735718304</v>
+        <v>0.009719001411337727</v>
       </c>
       <c r="F86">
-        <v>-0.06491239897384896</v>
+        <v>0.0172386969516612</v>
       </c>
       <c r="G86">
-        <v>0.0221270671327168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06523845163118487</v>
+      </c>
+      <c r="H86">
+        <v>-0.07178857492669156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03714604601078259</v>
+        <v>0.02968825904352001</v>
       </c>
       <c r="C87">
-        <v>0.001026843454545558</v>
+        <v>-0.003378465779886799</v>
       </c>
       <c r="D87">
-        <v>0.00172079184652302</v>
+        <v>0.03168049213899264</v>
       </c>
       <c r="E87">
-        <v>-0.04554775312468309</v>
+        <v>-0.006838055679193209</v>
       </c>
       <c r="F87">
-        <v>-0.1028790758283643</v>
+        <v>-0.006551962084793353</v>
       </c>
       <c r="G87">
-        <v>0.04645291614980061</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07799886728969942</v>
+      </c>
+      <c r="H87">
+        <v>-0.06803207867860965</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0107410032587001</v>
+        <v>0.03859255793908851</v>
       </c>
       <c r="C88">
-        <v>-0.006995809387023881</v>
+        <v>0.01019080191662551</v>
       </c>
       <c r="D88">
-        <v>0.01756036201229089</v>
+        <v>0.002894706440134169</v>
       </c>
       <c r="E88">
-        <v>0.001244091036930729</v>
+        <v>-0.009479945317367917</v>
       </c>
       <c r="F88">
-        <v>-0.01166097642553462</v>
+        <v>-0.01139018238616724</v>
       </c>
       <c r="G88">
-        <v>0.05730069414403665</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.003448853355106219</v>
+      </c>
+      <c r="H88">
+        <v>-0.009962208636941746</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08944437872234577</v>
+        <v>0.2376687572365229</v>
       </c>
       <c r="C89">
-        <v>0.03737340981767368</v>
+        <v>-0.03595031386563752</v>
       </c>
       <c r="D89">
-        <v>0.1517933495978175</v>
+        <v>-0.3537144090620795</v>
       </c>
       <c r="E89">
-        <v>0.259745627962976</v>
+        <v>0.04688043976912758</v>
       </c>
       <c r="F89">
-        <v>-0.1311431520159241</v>
+        <v>0.06567671269963447</v>
       </c>
       <c r="G89">
-        <v>0.02197803322170561</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02589415053692752</v>
+      </c>
+      <c r="H89">
+        <v>0.01874949703610342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08009420819347698</v>
+        <v>0.1918246674726711</v>
       </c>
       <c r="C90">
-        <v>0.06307943657370765</v>
+        <v>-0.02916496768665583</v>
       </c>
       <c r="D90">
-        <v>0.2016177379059188</v>
+        <v>-0.3134954375193971</v>
       </c>
       <c r="E90">
-        <v>0.2663921438689903</v>
+        <v>0.03663813052562172</v>
       </c>
       <c r="F90">
-        <v>-0.09440096305545194</v>
+        <v>0.08130511427867355</v>
       </c>
       <c r="G90">
-        <v>0.01119774937539407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02708731697964365</v>
+      </c>
+      <c r="H90">
+        <v>0.06489179243481295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3019464389080341</v>
+        <v>0.2367072029260839</v>
       </c>
       <c r="C91">
-        <v>-0.1466847101970953</v>
+        <v>-0.1052504804579106</v>
       </c>
       <c r="D91">
-        <v>0.03690938537385512</v>
+        <v>0.1450900532854832</v>
       </c>
       <c r="E91">
-        <v>-0.02523055119619937</v>
+        <v>-0.005945542009202251</v>
       </c>
       <c r="F91">
-        <v>0.2415270444878279</v>
+        <v>-0.139874866782922</v>
       </c>
       <c r="G91">
-        <v>-0.0411080081145884</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1526291718104046</v>
+      </c>
+      <c r="H91">
+        <v>0.1642615595790758</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1685705333817423</v>
+        <v>0.2360915783486727</v>
       </c>
       <c r="C92">
-        <v>0.007898657595378351</v>
+        <v>-0.09144410974553145</v>
       </c>
       <c r="D92">
-        <v>0.2832291622329443</v>
+        <v>-0.2422957659527873</v>
       </c>
       <c r="E92">
-        <v>0.3718582453345993</v>
+        <v>0.01922796508527421</v>
       </c>
       <c r="F92">
-        <v>0.06009272546427164</v>
+        <v>0.03433779116300698</v>
       </c>
       <c r="G92">
-        <v>0.5682409119912813</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0004851821655915417</v>
+      </c>
+      <c r="H92">
+        <v>0.152600180799402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08570119921850469</v>
+        <v>0.2158443769073828</v>
       </c>
       <c r="C93">
-        <v>0.06817269414696417</v>
+        <v>-0.04155183519701969</v>
       </c>
       <c r="D93">
-        <v>0.2236407952958663</v>
+        <v>-0.3332612093482913</v>
       </c>
       <c r="E93">
-        <v>0.3892834665498151</v>
+        <v>0.06080792915941656</v>
       </c>
       <c r="F93">
-        <v>-0.06326725534430719</v>
+        <v>0.09042876069253408</v>
       </c>
       <c r="G93">
-        <v>-0.06247484237778864</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03563048944937907</v>
+      </c>
+      <c r="H93">
+        <v>0.01427899677075291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2967582950667494</v>
+        <v>0.2643405550200088</v>
       </c>
       <c r="C94">
-        <v>-0.2178055015796708</v>
+        <v>-0.0975895102581571</v>
       </c>
       <c r="D94">
-        <v>0.08087430694622379</v>
+        <v>0.140089441533633</v>
       </c>
       <c r="E94">
-        <v>-0.03987779097908533</v>
+        <v>0.001676531637340893</v>
       </c>
       <c r="F94">
-        <v>0.2214145246590838</v>
+        <v>-0.1875212970982849</v>
       </c>
       <c r="G94">
-        <v>-0.08374005566987365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1461365644427894</v>
+      </c>
+      <c r="H94">
+        <v>0.1816771012319918</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07490885951878985</v>
+        <v>0.0559682074240886</v>
       </c>
       <c r="C95">
-        <v>-0.02882482365563573</v>
+        <v>-0.03026181987967623</v>
       </c>
       <c r="D95">
-        <v>-0.09028811604157211</v>
+        <v>0.08861699456392486</v>
       </c>
       <c r="E95">
-        <v>-0.08139838323110322</v>
+        <v>0.07801553180890929</v>
       </c>
       <c r="F95">
-        <v>0.01424817641481516</v>
+        <v>-0.009882090695935526</v>
       </c>
       <c r="G95">
-        <v>0.1631701893623861</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02908968699317863</v>
+      </c>
+      <c r="H95">
+        <v>-0.03338422118709189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1797314866341725</v>
+        <v>0.1816895073199975</v>
       </c>
       <c r="C98">
-        <v>0.00680334803566565</v>
+        <v>-0.06924143900733222</v>
       </c>
       <c r="D98">
-        <v>-0.02604247931266399</v>
+        <v>0.02877501127602845</v>
       </c>
       <c r="E98">
-        <v>0.09058660466440398</v>
+        <v>0.04782099286060764</v>
       </c>
       <c r="F98">
-        <v>-0.1646085836039206</v>
+        <v>-0.001981699931112363</v>
       </c>
       <c r="G98">
-        <v>-0.3182760713154222</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07829361441544569</v>
+      </c>
+      <c r="H98">
+        <v>-0.3808657790342198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005686168172856018</v>
+        <v>0.01483477007275982</v>
       </c>
       <c r="C101">
-        <v>-0.02512985815209856</v>
+        <v>0.0005364881304790541</v>
       </c>
       <c r="D101">
-        <v>-0.02132468399408424</v>
+        <v>0.01049538698958474</v>
       </c>
       <c r="E101">
-        <v>-0.1175364798815328</v>
+        <v>-0.006505282746603152</v>
       </c>
       <c r="F101">
-        <v>-0.1390097694218555</v>
+        <v>-0.01803230888336947</v>
       </c>
       <c r="G101">
-        <v>0.1654261104890151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.108120344158061</v>
+      </c>
+      <c r="H101">
+        <v>0.03304931116068911</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09990635090157554</v>
+        <v>0.1061607006480446</v>
       </c>
       <c r="C102">
-        <v>-0.06357365314104035</v>
+        <v>-0.03524656856959477</v>
       </c>
       <c r="D102">
-        <v>0.002826291591838289</v>
+        <v>0.07404825451022155</v>
       </c>
       <c r="E102">
-        <v>-0.04539588617162133</v>
+        <v>-0.007291208676129968</v>
       </c>
       <c r="F102">
-        <v>0.1189648170800524</v>
+        <v>-0.06878608043577097</v>
       </c>
       <c r="G102">
-        <v>0.0115900554181314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07793458442935615</v>
+      </c>
+      <c r="H102">
+        <v>0.07119847740651918</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02606504748549906</v>
+        <v>0.01973805388579732</v>
       </c>
       <c r="C103">
-        <v>-0.01445868410554656</v>
+        <v>-0.007569076815540117</v>
       </c>
       <c r="D103">
-        <v>-0.0001294761466194522</v>
+        <v>0.01653105575608008</v>
       </c>
       <c r="E103">
-        <v>-0.01775283425881506</v>
+        <v>-0.01174302815966067</v>
       </c>
       <c r="F103">
-        <v>0.009472682587423436</v>
+        <v>-0.01353983524109881</v>
       </c>
       <c r="G103">
-        <v>0.03734479131807607</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0002401966299538006</v>
+      </c>
+      <c r="H103">
+        <v>0.008372356450394179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2705912341488699</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9456128743416924</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.01374579283081849</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03828934383583995</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1440198337952087</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01309811320620065</v>
+      </c>
+      <c r="H104">
+        <v>0.03767919884218251</v>
       </c>
     </row>
   </sheetData>
